--- a/output/xlsx/RF002 - Realizar Logout--ART-.xlsx
+++ b/output/xlsx/RF002 - Realizar Logout--ART-.xlsx
@@ -17,7 +17,7 @@
     <t xml:space="preserve">System: </t>
   </si>
   <si>
-    <t>RGP-Competências</t>
+    <t>GTI-Competências</t>
   </si>
   <si>
     <t/>

--- a/output/xlsx/RF002 - Realizar Logout--ART-.xlsx
+++ b/output/xlsx/RF002 - Realizar Logout--ART-.xlsx
@@ -32,7 +32,7 @@
     <t xml:space="preserve">Version: </t>
   </si>
   <si>
-    <t>0.1</t>
+    <t>1.0</t>
   </si>
   <si>
     <t>Suite Type:</t>
@@ -92,7 +92,7 @@
     <t>Actual Result</t>
   </si>
   <si>
-    <t>Usuario do Sistema clica na opcao de logout atraves da opcao disponivel no canto superior direito</t>
+    <t>Usuario do Sistema clica na opcao de Logout atraves da opcao disponivel no canto superior direito</t>
   </si>
   <si>
     <t>SYSTEM exibe uma mensagem de sucesso e apresenta a tela inicial do sistema</t>

--- a/output/xlsx/RF002 - Realizar Logout--ART-.xlsx
+++ b/output/xlsx/RF002 - Realizar Logout--ART-.xlsx
@@ -92,7 +92,7 @@
     <t>Actual Result</t>
   </si>
   <si>
-    <t>Usuario do Sistema clica na opcao de Logout atraves da opcao disponivel no canto superior direito</t>
+    <t>Usuario do Sistema clica na opcao de Logout disponivel no canto superior direito</t>
   </si>
   <si>
     <t>SYSTEM exibe uma mensagem de sucesso e apresenta a tela inicial do sistema</t>
